--- a/data/excel/Robinson Crusoe (version 2)/CHAPTER 19.xlsx
+++ b/data/excel/Robinson Crusoe (version 2)/CHAPTER 19.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DataCutAudio\ExcelFile\Robinson Crusoe (version 2)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DataBackUpOnGitHub\CutAudio\CutAudio.github.io\data\excel\Robinson Crusoe (version 2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t xml:space="preserve">  Having done all this I left them the next day, and went on board the ship.</t>
   </si>
@@ -107,18 +107,12 @@
     <t>“But,” says the old man, “I have one piece of news to tell you, which perhaps may not be so acceptable to you as the rest; and that is, believing you were lost, and all the world believing so also, your partner and trustees did offer to account with me, in your name, for the first six or eight years’ profits, which I received.</t>
   </si>
   <si>
-    <t>There being at that time great disbursements for increasing the works, building an ingenio, and buying slaves, it did not amount to near so much as afterwards it produced; however,” says the old man, “I shall give you a true account of what I have received in all, and how I have disposed of it.”  After a few days’ further conference with this ancient friend, he brought me an account of the first six years’ income of my plantation, signed by my partner and the merchant trustees, being always delivered in goods, viz.</t>
-  </si>
-  <si>
     <t>tobacco in roll, and sugar in chests, besides rum, molasses, &amp;c., which is the consequence of a sugar work; and I found by this account, that every year the income considerably increased; but, as above, the disbursements being large, the sum at first was small: however, the old man let me see that he was debtor to me four hundred and seventy moidores of gold, besides sixty chests of sugar and fifteen double rolls of tobacco, which were lost in his ship; he having been shipwrecked coming home to Lisbon, about eleven years after my having the place.</t>
   </si>
   <si>
     <t>The good man then began to complain of his misfortunes, and how he had been obliged to make use of my money to recover his losses, and buy him a share in a new ship.</t>
   </si>
   <si>
-    <t>“However, my old friend,” says he, “you shall not want a supply in your necessity; and as soon as my son returns you shall be fully satisfied.” Upon this he pulls out an old pouch, and gives me one hundred and sixty Portugal moidores in gold; and giving the writings of his title to the ship, which his son was gone to the Brazils in, of which he was quarter part owner, and his son another, he puts them both into my hands for security of the rest.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> I was too much moved with the honesty and kindness of the poor man to be able to bear this; and remembering what he had done for me, how he had taken me up at sea, and how generously he had used me on all occasions, and particularly how sincere a friend he was now to me, I could hardly refrain weeping at what he had said to me; therefore I asked him if his circumstances admitted him to spare so much money at that time, and if it would not straiten him?</t>
   </si>
   <si>
@@ -309,6 +303,18 @@
   </si>
   <si>
     <t>text</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> After a few days’ further conference with this ancient friend, he brought me an account of the first six years’ income of my plantation, signed by my partner and the merchant trustees, being always delivered in goods, viz.</t>
+  </si>
+  <si>
+    <t>Upon this he pulls out an old pouch, and gives me one hundred and sixty Portugal moidores in gold; and giving the writings of his title to the ship, which his son was gone to the Brazils in, of which he was quarter part owner, and his son another, he puts them both into my hands for security of the rest.</t>
+  </si>
+  <si>
+    <t>There being at that time great disbursements for increasing the works, building an ingenio, and buying slaves, it did not amount to near so much as afterwards it produced; however,” says the old man, “I shall give you a true account of what I have received in all, and how I have disposed of it.”</t>
+  </si>
+  <si>
+    <t>“However, my old friend,” says he, “you shall not want a supply in your necessity; and as soon as my son returns you shall be fully satisfied.”</t>
   </si>
 </sst>
 </file>
@@ -626,20 +632,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B94"/>
+  <dimension ref="A1:B96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A94"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="K96" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -863,7 +869,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -871,7 +877,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -879,7 +885,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -887,7 +893,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -895,7 +901,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -903,7 +909,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -911,7 +917,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -919,7 +925,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -927,7 +933,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -935,7 +941,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -943,7 +949,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -951,7 +957,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -959,7 +965,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -967,7 +973,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -975,7 +981,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -983,7 +989,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -991,7 +997,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -999,7 +1005,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -1007,7 +1013,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -1015,7 +1021,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -1023,7 +1029,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1031,7 +1037,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -1039,7 +1045,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -1047,7 +1053,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -1055,7 +1061,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -1063,7 +1069,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -1071,7 +1077,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -1079,7 +1085,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -1087,7 +1093,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -1095,7 +1101,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -1103,7 +1109,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -1111,7 +1117,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -1119,7 +1125,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -1127,7 +1133,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -1135,7 +1141,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -1143,7 +1149,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -1151,7 +1157,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -1159,7 +1165,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -1167,7 +1173,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -1175,7 +1181,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -1183,7 +1189,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -1191,7 +1197,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -1199,7 +1205,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -1207,7 +1213,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -1215,7 +1221,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -1223,7 +1229,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -1231,7 +1237,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -1239,7 +1245,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -1247,7 +1253,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -1255,7 +1261,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -1263,7 +1269,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -1271,7 +1277,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -1279,7 +1285,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -1287,7 +1293,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -1295,7 +1301,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -1303,7 +1309,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -1311,7 +1317,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -1319,7 +1325,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -1327,7 +1333,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -1335,7 +1341,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -1343,7 +1349,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -1351,7 +1357,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -1359,7 +1365,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -1367,7 +1373,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -1375,7 +1381,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -1383,7 +1389,23 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>92</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
